--- a/database/industries/kashi/kehafez/product/yearly.xlsx
+++ b/database/industries/kashi/kehafez/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kehafez\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kehafez\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F597FD-F79C-4C45-86DE-10932373DCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA43CACE-A980-4D52-A2C6-3F9A86AB43DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -578,12 +578,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -593,7 +593,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -605,7 +605,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -617,7 +617,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -627,7 +627,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -639,7 +639,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -651,7 +651,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -661,7 +661,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -683,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -693,7 +693,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -717,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -741,7 +741,7 @@
         <v>1259611</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -765,7 +765,7 @@
         <v>1684255</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -789,7 +789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -835,7 +835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -859,7 +859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -883,7 +883,7 @@
         <v>1832398</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -905,7 +905,7 @@
         <v>4776264</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -915,7 +915,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -925,7 +925,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -935,7 +935,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>21</v>
       </c>
@@ -957,7 +957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -967,7 +967,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>10</v>
       </c>
@@ -991,7 +991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>13</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>1105297</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>14</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>1663634</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>22</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>23</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>15</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>17</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>18</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>25</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>19</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>1799476</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>20</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>4568407</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1283,7 +1283,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1293,7 +1293,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1303,7 +1303,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>26</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1335,7 +1335,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>10</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>13</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>689238</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>14</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>2486968</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>22</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>23</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>15</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>16</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>17</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>18</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>25</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>19</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>1302157</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>20</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>4478363</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1631,7 +1631,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1641,7 +1641,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1651,7 +1651,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>28</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1683,7 +1683,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>10</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>13</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>623577</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>14</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>1494901</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>22</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>23</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>15</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>16</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>17</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>18</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>25</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>19</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>723631</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1957,7 +1957,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1967,7 +1967,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1977,7 +1977,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>31</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2009,7 +2009,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>10</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>13</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>-561028</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>14</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>-1002785</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>22</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>23</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>15</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>16</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>18</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>25</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>19</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>-982878</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>20</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>-2546691</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2281,7 +2281,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2291,7 +2291,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2301,7 +2301,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>32</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2333,7 +2333,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>10</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>13</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>128210</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>14</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>1484183</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>22</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>23</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>15</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>16</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>18</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>25</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>19</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>319279</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>20</v>
       </c>
